--- a/target/test-classes/testData/account.xlsx
+++ b/target/test-classes/testData/account.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C0B1C2-8AA3-420E-88E5-6C0888D6E7C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +196,6 @@
     <t>Shipping Street</t>
   </si>
   <si>
-    <t>4th Satge, Layout</t>
-  </si>
-  <si>
     <t>Shipping State/Province</t>
   </si>
   <si>
@@ -298,12 +296,15 @@
   </si>
   <si>
     <t>Demo Test</t>
+  </si>
+  <si>
+    <t>4th Stage, Layout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,6 +430,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -464,6 +482,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,69 +674,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AR6" sqref="AR6"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="9.1796875" style="1"/>
-    <col min="56" max="56" width="14.26953125" style="1" customWidth="1"/>
-    <col min="57" max="57" width="9.1796875" style="1"/>
-    <col min="58" max="58" width="13.453125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.1796875" style="1"/>
+    <col min="45" max="46" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="55" width="9.140625" style="1"/>
+    <col min="56" max="56" width="14.28515625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="9.140625" style="1"/>
+    <col min="58" max="58" width="13.42578125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +816,7 @@
         <v>47</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>50</v>
@@ -799,55 +834,55 @@
         <v>58</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -858,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -897,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>33</v>
@@ -942,55 +977,55 @@
         <v>57</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1000,24 +1035,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
